--- a/organograma/organograma_epta.xlsx
+++ b/organograma/organograma_epta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Artist front\GAME_DEV\EPTA_PROJECT\2020\EPTA_SPACE_PROGRAM\organograma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55216e7cd675d672/Artist front/GAME_DEV/EPTA_PROJECT/2020/EPTA_SPACE_PROGRAM/organograma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5F3E2F-B909-45E1-BB05-7AAE8BB9D537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9D5F3E2F-B909-45E1-BB05-7AAE8BB9D537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A659852D-6DC7-44F8-8381-FC259FD1AEE1}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4440" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,6 +735,18 @@
     <xf numFmtId="1" fontId="9" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,18 +787,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,7 +1242,7 @@
   <dimension ref="A1:AK52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,21 +1260,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
       <c r="N1" s="1"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1291,34 +1291,34 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="3"/>
-      <c r="AD1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="71">
+      <c r="AD1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="57">
         <v>44018</v>
       </c>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="54" t="s">
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="55"/>
+      <c r="AJ1" s="59"/>
     </row>
     <row r="2" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -1335,21 +1335,21 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="6"/>
-      <c r="AD2" s="66" t="s">
+      <c r="AD2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="71">
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="57">
         <f ca="1">TODAY()</f>
-        <v>44027</v>
-      </c>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="56">
+        <v>44032</v>
+      </c>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="60">
         <f ca="1">INT((AF2 - AF1)/7)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="57"/>
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="61"/>
       <c r="AK2" s="22">
         <v>0</v>
       </c>
@@ -1431,22 +1431,22 @@
       <c r="AJ4" s="12"/>
     </row>
     <row r="5" spans="1:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="68" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="68" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="21">
         <f xml:space="preserve"> $AF$1+AK2 * 7</f>
         <v>44018</v>
@@ -1846,11 +1846,11 @@
         <v>1</v>
       </c>
       <c r="H8" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="45">
         <f t="shared" ref="I8:I12" si="5">IF(H8="","",H8/G8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="44"/>
       <c r="K8" s="38">
@@ -7446,16 +7446,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE2"/>
   </mergeCells>
   <conditionalFormatting sqref="K7:AJ52">
     <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
